--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3476382.114949584</v>
+        <v>3469865.153911465</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10747230.11886604</v>
+        <v>10782777.0258794</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881594.0812127446</v>
+        <v>881611.6927231769</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7591334.256043832</v>
+        <v>7593853.016109613</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>13.91332762480654</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>234.0716522785265</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1615,7 +1615,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>174.919522788044</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1669,13 +1669,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>27.29996171875905</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1821,7 +1821,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D17" t="n">
-        <v>239.5137251817965</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>173.8413547579691</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>257.7569561516011</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>279.2456663988792</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>299.7357983599352</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D19" t="n">
-        <v>101.6403363996198</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>26.35711809130425</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>18.93685035151418</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704446</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>336.8807434231776</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>26.49649012754016</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>185.0276428790604</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>279.2456663988792</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>299.7357983599352</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D22" t="n">
-        <v>101.6403363996198</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>26.35711809130425</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>18.93685035151418</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870203</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704446</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>336.8807434231776</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348609</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H23" t="n">
-        <v>247.6326277687279</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210278</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403102</v>
+        <v>180.9998696403692</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515423</v>
+        <v>257.7569561516011</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>279.2456663988792</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>299.7357983599352</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.262802037461</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996198</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>96.03050594049424</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>74.75971259578695</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>26.35711809130424</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>18.93685035151348</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870203</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687276</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124628</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210264</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2958,19 +2958,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124521</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695837</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210274</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633446</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797647</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433855</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572808</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912454</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145463</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575765</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870201</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052353</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179983</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>288.7835684262955</v>
+        <v>311.8037341262367</v>
       </c>
       <c r="C35" t="n">
-        <v>271.3226185338224</v>
+        <v>294.3427842337637</v>
       </c>
       <c r="D35" t="n">
-        <v>260.7327683834978</v>
+        <v>283.7529340834391</v>
       </c>
       <c r="E35" t="n">
-        <v>235.6978389621987</v>
+        <v>311.000262535018</v>
       </c>
       <c r="F35" t="n">
-        <v>312.9257725045263</v>
+        <v>335.9459382044676</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9714524162683</v>
+        <v>339.9916181162096</v>
       </c>
       <c r="H35" t="n">
-        <v>200.6574911501353</v>
+        <v>223.6776568500766</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.2374885509907</v>
+        <v>38.25765425093201</v>
       </c>
       <c r="T35" t="n">
-        <v>109.967696902435</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>157.0448987217169</v>
+        <v>180.0650644216581</v>
       </c>
       <c r="V35" t="n">
-        <v>233.8019852329498</v>
+        <v>15.2454358632118</v>
       </c>
       <c r="W35" t="n">
-        <v>255.2906954802279</v>
+        <v>278.3108611801692</v>
       </c>
       <c r="X35" t="n">
-        <v>275.7808274412839</v>
+        <v>298.8009931412252</v>
       </c>
       <c r="Y35" t="n">
-        <v>292.2876654188685</v>
+        <v>315.3078311188098</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.88170694475217</v>
+        <v>108.9018726446935</v>
       </c>
       <c r="C37" t="n">
-        <v>73.2965478614427</v>
+        <v>96.31671356138401</v>
       </c>
       <c r="D37" t="n">
-        <v>57.12552096357003</v>
+        <v>77.68536548096853</v>
       </c>
       <c r="E37" t="n">
-        <v>52.48368940938404</v>
+        <v>75.50385510932534</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47077478574612</v>
+        <v>74.49094048568742</v>
       </c>
       <c r="G37" t="n">
-        <v>72.07553502184309</v>
+        <v>95.0957007217844</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>73.82490737707695</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>40.37919637195451</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.0020451328035</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>118.8389177941981</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5986760389841</v>
+        <v>148.6188417389254</v>
       </c>
       <c r="U37" t="n">
-        <v>192.2615649684277</v>
+        <v>215.281730668369</v>
       </c>
       <c r="V37" t="n">
-        <v>158.1873700866429</v>
+        <v>181.2075357865842</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>215.5928907993472</v>
       </c>
       <c r="X37" t="n">
-        <v>131.759382151852</v>
+        <v>154.7795478517933</v>
       </c>
       <c r="Y37" t="n">
-        <v>124.6343801149097</v>
+        <v>147.654545814851</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>288.7835684262955</v>
+        <v>311.8037341262367</v>
       </c>
       <c r="C38" t="n">
-        <v>271.3226185338224</v>
+        <v>294.3427842337637</v>
       </c>
       <c r="D38" t="n">
-        <v>260.7327683834978</v>
+        <v>283.7529340834391</v>
       </c>
       <c r="E38" t="n">
-        <v>287.9800968350767</v>
+        <v>311.000262535018</v>
       </c>
       <c r="F38" t="n">
-        <v>312.9257725045263</v>
+        <v>335.9459382044676</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9714524162683</v>
+        <v>227.3623515451626</v>
       </c>
       <c r="H38" t="n">
-        <v>200.6574911501353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.2374885509907</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>57.68543902955754</v>
+        <v>132.9878626023763</v>
       </c>
       <c r="U38" t="n">
-        <v>157.0448987217169</v>
+        <v>180.0650644216581</v>
       </c>
       <c r="V38" t="n">
-        <v>233.8019852329498</v>
+        <v>256.8221509328911</v>
       </c>
       <c r="W38" t="n">
-        <v>255.2906954802279</v>
+        <v>278.3108611801692</v>
       </c>
       <c r="X38" t="n">
-        <v>275.7808274412839</v>
+        <v>298.8009931412252</v>
       </c>
       <c r="Y38" t="n">
-        <v>292.2876654188685</v>
+        <v>315.3078311188098</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.88170694475217</v>
+        <v>108.9018726446935</v>
       </c>
       <c r="C40" t="n">
-        <v>73.2965478614427</v>
+        <v>96.31671356138401</v>
       </c>
       <c r="D40" t="n">
-        <v>54.66519978102723</v>
+        <v>77.68536548096853</v>
       </c>
       <c r="E40" t="n">
-        <v>52.48368940938404</v>
+        <v>75.50385510932534</v>
       </c>
       <c r="F40" t="n">
-        <v>51.47077478574612</v>
+        <v>74.49094048568742</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>95.0957007217844</v>
       </c>
       <c r="H40" t="n">
-        <v>50.80474167713565</v>
+        <v>73.82490737707695</v>
       </c>
       <c r="I40" t="n">
-        <v>2.402147172652967</v>
+        <v>25.42231287259427</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.0020451328035</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>118.8389177941981</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>148.6188417389254</v>
       </c>
       <c r="U40" t="n">
-        <v>192.2615649684277</v>
+        <v>215.281730668369</v>
       </c>
       <c r="V40" t="n">
-        <v>160.6476912691857</v>
+        <v>196.1644192859444</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>215.5928907993472</v>
       </c>
       <c r="X40" t="n">
-        <v>131.759382151852</v>
+        <v>154.7795478517933</v>
       </c>
       <c r="Y40" t="n">
-        <v>124.6343801149097</v>
+        <v>147.654545814851</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3793,16 +3793,16 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>179.4384479484341</v>
       </c>
       <c r="W41" t="n">
-        <v>174.9195227880446</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3918,7 +3918,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870209</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3994,7 +3994,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>179.438447948434</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
-        <v>72.03045914655164</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633456</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996203</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464213</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>979.8546354718744</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131972</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>330.6999501630263</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>330.6999501630263</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5071,22 +5071,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425608</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="12">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5199,10 +5199,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337115</v>
@@ -5217,16 +5217,16 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1606.686541786253</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.173657793915</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>974.3575921352378</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>974.3575921352378</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>610.8213202937036</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>243.1985030867734</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5278,19 +5278,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2677.383608767879</v>
       </c>
       <c r="W14" t="n">
-        <v>2614.542573243047</v>
+        <v>2372.064586445838</v>
       </c>
       <c r="X14" t="n">
-        <v>2288.52644793004</v>
+        <v>2046.048461132831</v>
       </c>
       <c r="Y14" t="n">
-        <v>1945.836748902302</v>
+        <v>2018.472742224994</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5421,28 +5421,28 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1949.589732305505</v>
+        <v>1487.38906047384</v>
       </c>
       <c r="C17" t="n">
-        <v>1628.076848313167</v>
+        <v>1189.128869107705</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>901.5654960752306</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>586.479569051263</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>410.8822410129103</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,7 +5515,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5524,7 +5524,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="T17" t="n">
-        <v>3262.764786084339</v>
+        <v>3150.742056669042</v>
       </c>
       <c r="U17" t="n">
-        <v>3262.764786084339</v>
+        <v>2967.913905517154</v>
       </c>
       <c r="V17" t="n">
-        <v>3262.764786084339</v>
+        <v>2707.553343747861</v>
       </c>
       <c r="W17" t="n">
-        <v>2957.445763762298</v>
+        <v>2425.487014052023</v>
       </c>
       <c r="X17" t="n">
-        <v>2631.429638449292</v>
+        <v>2122.72358136522</v>
       </c>
       <c r="Y17" t="n">
-        <v>2288.739939421554</v>
+        <v>1803.286574963685</v>
       </c>
     </row>
     <row r="18">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>596.6974014218711</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>498.4635440682408</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>419.0492302301817</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>341.8384622220652</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>265.6508402984315</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>168.6503292474271</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>93.13546803956146</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>1908.166416420297</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1636.118567965202</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1417.718026665123</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>1233.735864033512</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1015.021019570828</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>857.7337942470876</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>707.6435406778342</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.134122574823</v>
+        <v>1878.956586467774</v>
       </c>
       <c r="C20" t="n">
-        <v>1358.621238582484</v>
+        <v>1580.696395101639</v>
       </c>
       <c r="D20" t="n">
-        <v>1047.805172923807</v>
+        <v>1293.133022069165</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>978.0470950451975</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822731</v>
+        <v>637.7635158298665</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>293.3933912491396</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3298.841690167211</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="T20" t="n">
-        <v>3140.313575499506</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="U20" t="n">
-        <v>2934.232731721416</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="V20" t="n">
-        <v>2650.619477325919</v>
+        <v>3099.120869741795</v>
       </c>
       <c r="W20" t="n">
-        <v>2345.300455003878</v>
+        <v>2817.054540045958</v>
       </c>
       <c r="X20" t="n">
-        <v>2019.284329690871</v>
+        <v>2514.291107359154</v>
       </c>
       <c r="Y20" t="n">
-        <v>2019.284329690871</v>
+        <v>2194.854100957619</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>596.6974014218711</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>498.4635440682408</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>419.0492302301817</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>341.8384622220652</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>265.6508402984315</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>168.6503292474271</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>93.13546803956146</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>1908.166416420297</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1636.118567965202</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1417.718026665123</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>1233.735864033512</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1015.021019570828</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>857.7337942470876</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>707.6435406778342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>1886.94776046765</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1588.687569101515</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1301.124196069041</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>986.0382690450735</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>645.7546898297426</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>301.3845652490158</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>74.50329043205966</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>74.50329043205966</v>
       </c>
       <c r="J23" t="n">
-        <v>393.299453099171</v>
+        <v>263.3824213910851</v>
       </c>
       <c r="K23" t="n">
-        <v>727.1188267890175</v>
+        <v>918.1057535263847</v>
       </c>
       <c r="L23" t="n">
-        <v>1178.153040037426</v>
+        <v>1439.803534323276</v>
       </c>
       <c r="M23" t="n">
-        <v>1711.684944709351</v>
+        <v>1973.335438995201</v>
       </c>
       <c r="N23" t="n">
-        <v>2258.463761768133</v>
+        <v>2520.114256053983</v>
       </c>
       <c r="O23" t="n">
-        <v>2761.43623264747</v>
+        <v>3023.08672693332</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094416</v>
+        <v>3417.861093290498</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603404</v>
+        <v>3666.14745504618</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>3725.164521602983</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3685.576178704355</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641923</v>
+        <v>3550.300756662853</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>2825.045714045834</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2522.282281359031</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2202.845274957495</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>949.5350284809848</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>775.0819991998578</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>626.1475895386066</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>466.9101345331511</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>320.3755765600361</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>184.0124763926542</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>93.5105820305217</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>74.50329043205966</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>168.180559922677</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>406.4447589030241</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>773.1429192156895</v>
       </c>
       <c r="M24" t="n">
-        <v>1227.062870902635</v>
+        <v>1220.419244438006</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1693.94228799246</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2104.903567410515</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2415.403158886618</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997847</v>
+        <v>2573.044716533217</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2572.900363125732</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2443.462476619212</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761698</v>
+        <v>2250.819476297068</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.395255896113</v>
+        <v>2022.751629431484</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.243147664371</v>
+        <v>1787.599521199741</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936169</v>
+        <v>1533.362164471539</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1325.510664266007</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1117.750365501053</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>604.6885754217473</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>506.454718068117</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>427.0404042300578</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>349.8296362219413</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>273.6420142983076</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>176.6415032473033</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>101.1266420394377</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>74.50329043205966</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>119.6259228789952</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>323.6131058278716</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>640.1729042763677</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>984.3299498759167</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>1325.738326581781</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1625.067925502195</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>1857.675425935854</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>1935.285722088369</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>1916.157590420173</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>1795.174031821276</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1644.109741965078</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1425.709200664999</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>1241.727038033388</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1023.012193570705</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>865.7249682469638</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>715.6347146777103</v>
       </c>
     </row>
     <row r="26">
@@ -6202,64 +6202,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398484</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6268,7 +6268,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6302,7 +6302,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415479</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643402</v>
+        <v>229.7905149643392</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302713</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6405,13 +6405,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570352</v>
@@ -6423,13 +6423,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6463,52 +6463,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>937.3106675423214</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1388.34488079073</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1921.876785462655</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N29" t="n">
-        <v>2468.655602521437</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O29" t="n">
-        <v>2971.628073400774</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6627,7 +6627,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6651,22 +6651,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6682,16 +6682,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398485</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6700,31 +6700,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>792.1780824632682</v>
+        <v>810.8729904741849</v>
       </c>
       <c r="L32" t="n">
-        <v>1243.212295711677</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M32" t="n">
-        <v>1776.744200383602</v>
+        <v>2240.457506552422</v>
       </c>
       <c r="N32" t="n">
-        <v>2323.523017442384</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321721</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6733,13 +6733,13 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833286</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697991</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899656</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572249</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.59160627785</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.35535505275</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386253</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297366</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519653</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1680.964583048799</v>
+        <v>1873.291100293774</v>
       </c>
       <c r="C35" t="n">
-        <v>1406.901332004534</v>
+        <v>1575.975156623306</v>
       </c>
       <c r="D35" t="n">
-        <v>1143.53489929393</v>
+        <v>1289.356031286498</v>
       </c>
       <c r="E35" t="n">
-        <v>905.4562740795875</v>
+        <v>975.2143519581974</v>
       </c>
       <c r="F35" t="n">
-        <v>589.3696351861265</v>
+        <v>635.8750204385332</v>
       </c>
       <c r="G35" t="n">
-        <v>269.1964509272696</v>
+        <v>292.4491435534729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6946,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3310.214419032413</v>
+        <v>3286.961726406209</v>
       </c>
       <c r="T35" t="n">
-        <v>3199.135937312782</v>
+        <v>3286.961726406209</v>
       </c>
       <c r="U35" t="n">
-        <v>3040.504726482764</v>
+        <v>3105.077822949989</v>
       </c>
       <c r="V35" t="n">
-        <v>2804.34110503534</v>
+        <v>3089.678392785128</v>
       </c>
       <c r="W35" t="n">
-        <v>2546.471715661372</v>
+        <v>2808.556310784958</v>
       </c>
       <c r="X35" t="n">
-        <v>2267.905223296439</v>
+        <v>2506.737125793821</v>
       </c>
       <c r="Y35" t="n">
-        <v>1972.665157216774</v>
+        <v>2188.244367087952</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>619.6025238727337</v>
+        <v>605.1956306828714</v>
       </c>
       <c r="C37" t="n">
-        <v>545.5656068409735</v>
+        <v>507.9060210249078</v>
       </c>
       <c r="D37" t="n">
-        <v>487.863060413125</v>
+        <v>429.4359548825153</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268785</v>
+        <v>353.1694345700655</v>
       </c>
       <c r="F37" t="n">
-        <v>382.8585511251147</v>
+        <v>277.9260603420984</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>181.8697969867607</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>107.2991834745617</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1909.110664115964</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1789.071353212734</v>
       </c>
       <c r="T37" t="n">
-        <v>1608.741314380992</v>
+        <v>1638.951311052203</v>
       </c>
       <c r="U37" t="n">
-        <v>1414.537713402782</v>
+        <v>1421.49501744779</v>
       </c>
       <c r="V37" t="n">
-        <v>1254.752491093042</v>
+        <v>1238.457102511846</v>
       </c>
       <c r="W37" t="n">
-        <v>965.3353210560811</v>
+        <v>1020.686505744829</v>
       </c>
       <c r="X37" t="n">
-        <v>832.2450360542103</v>
+        <v>864.3435281167547</v>
       </c>
       <c r="Y37" t="n">
-        <v>706.3517228068268</v>
+        <v>715.1975222431679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1733.774944536554</v>
+        <v>1533.587137242134</v>
       </c>
       <c r="C38" t="n">
-        <v>1459.711693492289</v>
+        <v>1236.271193571666</v>
       </c>
       <c r="D38" t="n">
-        <v>1196.345260781685</v>
+        <v>949.6520682348585</v>
       </c>
       <c r="E38" t="n">
-        <v>905.4562740795875</v>
+        <v>635.5103889065574</v>
       </c>
       <c r="F38" t="n">
-        <v>589.3696351861265</v>
+        <v>296.1710573868932</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1964509272696</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7183,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3310.214419032413</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3251.946298800537</v>
+        <v>3191.274647263336</v>
       </c>
       <c r="U38" t="n">
-        <v>3093.315087970519</v>
+        <v>3009.390743807116</v>
       </c>
       <c r="V38" t="n">
-        <v>2857.151466523095</v>
+        <v>2749.974429733488</v>
       </c>
       <c r="W38" t="n">
-        <v>2599.282077149128</v>
+        <v>2468.852347733317</v>
       </c>
       <c r="X38" t="n">
-        <v>2320.715584784195</v>
+        <v>2167.033162742181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2025.47551870453</v>
+        <v>1848.540404036313</v>
       </c>
     </row>
     <row r="39">
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>522.2180850649279</v>
+        <v>590.0876675522046</v>
       </c>
       <c r="C40" t="n">
-        <v>448.1811680331675</v>
+        <v>492.7980578942409</v>
       </c>
       <c r="D40" t="n">
-        <v>392.9637945169784</v>
+        <v>414.3279917518485</v>
       </c>
       <c r="E40" t="n">
-        <v>339.9499668307319</v>
+        <v>338.0614714393986</v>
       </c>
       <c r="F40" t="n">
-        <v>287.9592852289682</v>
+        <v>262.8180972114315</v>
       </c>
       <c r="G40" t="n">
-        <v>120.2564486036871</v>
+        <v>166.7618338560937</v>
       </c>
       <c r="H40" t="n">
-        <v>68.93852771769147</v>
+        <v>92.1912203438948</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1909.110664115964</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1789.071353212734</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.951311052203</v>
       </c>
       <c r="U40" t="n">
-        <v>1319.638447506635</v>
+        <v>1421.49501744779</v>
       </c>
       <c r="V40" t="n">
-        <v>1157.368052285236</v>
+        <v>1223.349139381179</v>
       </c>
       <c r="W40" t="n">
-        <v>867.9508822482752</v>
+        <v>1005.578542614162</v>
       </c>
       <c r="X40" t="n">
-        <v>734.8605972464045</v>
+        <v>849.2355649860879</v>
       </c>
       <c r="Y40" t="n">
-        <v>608.967283999021</v>
+        <v>700.0895591125011</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1430.000155131663</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.487271139325</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>797.6712054806478</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
         <v>797.6712054806478</v>
@@ -7420,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7441,22 +7441,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3104.236671416635</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U41" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V41" t="n">
-        <v>2614.542573243047</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W41" t="n">
-        <v>2437.856186588457</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X41" t="n">
-        <v>2111.84006127545</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1769.150362247712</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="42">
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052948</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254611</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611987</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268789</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770419</v>
       </c>
       <c r="G43" t="n">
         <v>215.1557144998337</v>
@@ -7575,7 +7575,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7587,7 +7587,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
         <v>2299.337630107746</v>
@@ -7605,7 +7605,7 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W43" t="n">
         <v>1247.547945832862</v>
@@ -7614,7 +7614,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.472742224994</v>
+        <v>1949.589732305505</v>
       </c>
       <c r="C44" t="n">
-        <v>1696.959858232656</v>
+        <v>1628.076848313167</v>
       </c>
       <c r="D44" t="n">
-        <v>1386.143792573978</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E44" t="n">
-        <v>1047.805172923807</v>
+        <v>978.9221630043186</v>
       </c>
       <c r="F44" t="n">
-        <v>684.2689010822731</v>
+        <v>615.3858911627843</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>247.7630739558541</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7648,10 +7648,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7678,22 +7678,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3190.006746542368</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U44" t="n">
-        <v>2983.925902764278</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V44" t="n">
-        <v>2700.312648368781</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W44" t="n">
-        <v>2700.312648368781</v>
+        <v>2957.445763762298</v>
       </c>
       <c r="X44" t="n">
-        <v>2700.312648368781</v>
+        <v>2631.429638449292</v>
       </c>
       <c r="Y44" t="n">
-        <v>2357.622949341042</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="45">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F46" t="n">
         <v>335.4089181770414</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L46" t="n">
         <v>771.6978860337115</v>
@@ -7851,7 +7851,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874615</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>131.4051496618628</v>
+        <v>138.9164809863028</v>
       </c>
       <c r="K8" t="n">
-        <v>145.6912275408194</v>
+        <v>156.9487660843767</v>
       </c>
       <c r="L8" t="n">
-        <v>143.4683437367657</v>
+        <v>157.4343157597006</v>
       </c>
       <c r="M8" t="n">
-        <v>127.6468450459099</v>
+        <v>143.1866798761441</v>
       </c>
       <c r="N8" t="n">
-        <v>125.0518919455489</v>
+        <v>140.8431775497334</v>
       </c>
       <c r="O8" t="n">
-        <v>131.5529163660242</v>
+        <v>146.4641795739154</v>
       </c>
       <c r="P8" t="n">
-        <v>147.1268663512406</v>
+        <v>159.8532845149088</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.1454893777269</v>
+        <v>168.7024994139528</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>97.27193314239361</v>
+        <v>101.7456306214591</v>
       </c>
       <c r="K9" t="n">
-        <v>87.3089595869971</v>
+        <v>94.95522113877061</v>
       </c>
       <c r="L9" t="n">
-        <v>70.60722514828143</v>
+        <v>80.88856741192451</v>
       </c>
       <c r="M9" t="n">
-        <v>62.84290932718724</v>
+        <v>74.84075080927312</v>
       </c>
       <c r="N9" t="n">
-        <v>49.9519873585819</v>
+        <v>62.26737600400703</v>
       </c>
       <c r="O9" t="n">
-        <v>68.14054709468155</v>
+        <v>79.40672169877905</v>
       </c>
       <c r="P9" t="n">
-        <v>74.21714616091575</v>
+        <v>83.25924452420213</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.0356274665311</v>
+        <v>106.0800307639973</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>98.53226637261265</v>
+        <v>103.1444611129062</v>
       </c>
       <c r="L10" t="n">
-        <v>95.87950101807488</v>
+        <v>101.7815223625788</v>
       </c>
       <c r="M10" t="n">
-        <v>97.80029556172231</v>
+        <v>104.0231495450463</v>
       </c>
       <c r="N10" t="n">
-        <v>87.53792827318048</v>
+        <v>93.61281669754359</v>
       </c>
       <c r="O10" t="n">
-        <v>101.3737168185014</v>
+        <v>106.9848595275846</v>
       </c>
       <c r="P10" t="n">
-        <v>105.9972438864274</v>
+        <v>110.7985458289051</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5185911550064</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>71.37734095806303</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>78.40458911672783</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>167.7369666428357</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>78.40458911672695</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>21.13839585591296</v>
+        <v>40.02214132148566</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.71785991911952</v>
+        <v>14.80635997154373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>350.0332614100544</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>68.19417982029395</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.71310498068385</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>311.962840318702</v>
       </c>
     </row>
     <row r="15">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>68.19417982029393</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>163.0393886652085</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.71613504204314</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>72.72931327254071</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>52.28225787287801</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>132.9878626023763</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.5767150696793</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>112.629266571047</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>223.6776568500766</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.25765425093201</v>
       </c>
       <c r="T38" t="n">
-        <v>52.28225787287749</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>101.3386739031082</v>
       </c>
       <c r="W41" t="n">
-        <v>127.3463093107759</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>68.19417982029393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>84.91237437447595</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>700705.5064210971</v>
+        <v>706379.043929168</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>604100.4679998623</v>
+        <v>604100.4679998622</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604100.4679998622</v>
+        <v>623982.0643082736</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604100.4679998623</v>
+        <v>623982.0643082735</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675283.9316998367</v>
+        <v>662851.0222909938</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644671.0144918758</v>
+        <v>624789.4181834646</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644671.0144918759</v>
+        <v>624789.4181834646</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>604100.4679998623</v>
+        <v>604100.4679998622</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491124</v>
       </c>
       <c r="D2" t="n">
-        <v>798839.8225993388</v>
+        <v>798832.9541102704</v>
       </c>
       <c r="E2" t="n">
         <v>745417.7346425963</v>
       </c>
       <c r="F2" t="n">
-        <v>745417.7346425964</v>
+        <v>745417.7346425961</v>
       </c>
       <c r="G2" t="n">
-        <v>745417.7346425966</v>
+        <v>770430.0654822105</v>
       </c>
       <c r="H2" t="n">
-        <v>745417.7346425961</v>
+        <v>770430.0654822108</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.725617676</v>
       </c>
       <c r="J2" t="n">
-        <v>800515.7256176753</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="K2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="M2" t="n">
-        <v>796458.0995841622</v>
+        <v>771445.7687445479</v>
       </c>
       <c r="N2" t="n">
-        <v>796458.0995841621</v>
+        <v>771445.7687445475</v>
       </c>
       <c r="O2" t="n">
         <v>745417.7346425961</v>
       </c>
       <c r="P2" t="n">
-        <v>745417.7346425963</v>
+        <v>745417.7346425962</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>124598.2186766196</v>
+        <v>105744.7885572818</v>
       </c>
       <c r="E3" t="n">
-        <v>1044462.42533391</v>
+        <v>1062148.850728831</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18416.13255995301</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902299</v>
+        <v>26562.76226526361</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487406</v>
+        <v>40892.28926881504</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>18416.13255995314</v>
       </c>
       <c r="M3" t="n">
-        <v>199180.5423999885</v>
+        <v>180764.4098400353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>403654.0990349408</v>
+        <v>410182.2001751685</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362317</v>
       </c>
       <c r="F4" t="n">
-        <v>59435.44534362313</v>
+        <v>59435.44534362318</v>
       </c>
       <c r="G4" t="n">
-        <v>59435.44534362313</v>
+        <v>73961.74546387934</v>
       </c>
       <c r="H4" t="n">
-        <v>59435.44534362313</v>
+        <v>73961.74546387934</v>
       </c>
       <c r="I4" t="n">
-        <v>86909.55729936335</v>
+        <v>88963.68619159085</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936335</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
         <v>86909.5572993633</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936327</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="M4" t="n">
-        <v>89198.61203532518</v>
+        <v>74556.34031586829</v>
       </c>
       <c r="N4" t="n">
-        <v>89198.61203532518</v>
+        <v>74556.34031586829</v>
       </c>
       <c r="O4" t="n">
         <v>59435.44534362314</v>
       </c>
       <c r="P4" t="n">
-        <v>59435.44534362319</v>
+        <v>59435.44534362314</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36799.24498379324</v>
+        <v>36319.33132450981</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>80190.77563201013</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>80190.77563201013</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>86264.06787191606</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82204.64608217022</v>
+        <v>80269.36377194185</v>
       </c>
       <c r="N5" t="n">
-        <v>82204.64608217022</v>
+        <v>80269.36377194185</v>
       </c>
       <c r="O5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="P5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318142.2099767199</v>
+        <v>318098.0741980387</v>
       </c>
       <c r="C6" t="n">
-        <v>318142.2099767199</v>
+        <v>318098.0741980384</v>
       </c>
       <c r="D6" t="n">
-        <v>233788.2599039852</v>
+        <v>246543.4860659409</v>
       </c>
       <c r="E6" t="n">
-        <v>-436735.6293567183</v>
+        <v>-455834.8237510009</v>
       </c>
       <c r="F6" t="n">
-        <v>607726.7959771915</v>
+        <v>606314.0269778302</v>
       </c>
       <c r="G6" t="n">
-        <v>607726.7959771917</v>
+        <v>597089.9846434073</v>
       </c>
       <c r="H6" t="n">
-        <v>607726.7959771912</v>
+        <v>615506.1172033608</v>
       </c>
       <c r="I6" t="n">
-        <v>575581.9669644841</v>
+        <v>598725.2092889055</v>
       </c>
       <c r="J6" t="n">
-        <v>586648.1173486318</v>
+        <v>583335.9373746922</v>
       </c>
       <c r="K6" t="n">
         <v>624228.2266435071</v>
       </c>
       <c r="L6" t="n">
-        <v>624228.2266435067</v>
+        <v>605812.0940835536</v>
       </c>
       <c r="M6" t="n">
-        <v>425874.2990666784</v>
+        <v>435110.2713071351</v>
       </c>
       <c r="N6" t="n">
-        <v>625054.8414666668</v>
+        <v>615874.68114717</v>
       </c>
       <c r="O6" t="n">
-        <v>607726.7959771912</v>
+        <v>606314.0269778302</v>
       </c>
       <c r="P6" t="n">
-        <v>607726.7959771914</v>
+        <v>606314.0269778303</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>69.99530231853385</v>
+      </c>
+      <c r="H2" t="n">
+        <v>69.99530231853385</v>
+      </c>
+      <c r="I2" t="n">
+        <v>69.99530231853385</v>
+      </c>
+      <c r="J2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="G2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859255</v>
-      </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M2" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="N2" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.4883020088644</v>
+        <v>123.4739139683398</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26767,7 +26767,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26801,19 +26801,19 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
+        <v>931.2911304007457</v>
+      </c>
+      <c r="J4" t="n">
         <v>1014.336461208615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26822,16 +26822,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>23.95497091865126</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.02016569994142</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>23.95497091865114</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145.4883020088644</v>
+        <v>123.4739139683398</v>
       </c>
       <c r="E3" t="n">
-        <v>944.2883985844339</v>
+        <v>966.3027866249585</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063221</v>
+        <v>99.88967499845296</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>83.04533080786882</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>23.95497091865126</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>333.4849244355731</v>
+        <v>334.3912755974626</v>
       </c>
       <c r="I8" t="n">
-        <v>187.927396050017</v>
+        <v>191.3392943211017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>113.1293006504388</v>
+        <v>118.6885420685317</v>
       </c>
       <c r="S8" t="n">
-        <v>195.6921713670413</v>
+        <v>197.7088663116582</v>
       </c>
       <c r="T8" t="n">
-        <v>220.5355478875734</v>
+        <v>220.9229568670604</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2988627001552</v>
+        <v>251.3059427043492</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0305800607765</v>
+        <v>137.0779317633542</v>
       </c>
       <c r="H9" t="n">
-        <v>109.213130641935</v>
+        <v>109.6704484010409</v>
       </c>
       <c r="I9" t="n">
-        <v>78.62226331585295</v>
+        <v>80.25257412828802</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>80.7282831787046</v>
+        <v>83.66824239664484</v>
       </c>
       <c r="S9" t="n">
-        <v>165.8705016792384</v>
+        <v>166.7500387863292</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9033725670278</v>
+        <v>199.094233157681</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9207941137094</v>
+        <v>225.9239093573001</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7286234040165</v>
+        <v>167.7683214808109</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8945895670352</v>
+        <v>160.247541558898</v>
       </c>
       <c r="I10" t="n">
-        <v>147.5607158609415</v>
+        <v>148.7545452976309</v>
       </c>
       <c r="J10" t="n">
-        <v>74.81061413760821</v>
+        <v>77.61726816697148</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.19330964835586</v>
+        <v>67.51748224247507</v>
       </c>
       <c r="R10" t="n">
-        <v>165.496913643795</v>
+        <v>167.2818835331136</v>
       </c>
       <c r="S10" t="n">
-        <v>219.4444492672839</v>
+        <v>220.1362784783279</v>
       </c>
       <c r="T10" t="n">
-        <v>226.8246139865738</v>
+        <v>226.994233041968</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3047190317031</v>
+        <v>286.3068843813464</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859266</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853315</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853315</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661858935</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859269</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="C35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="D35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="E35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="F35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="G35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="H35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="T35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="U35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="V35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="W35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="X35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="C37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="D37" t="n">
-        <v>91.48995205464233</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="E37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="F37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="G37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>55.97322403788358</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="T37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="U37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="V37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="X37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="C38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="D38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="E38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="F38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="G38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="H38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="T38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="U38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="V38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="W38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="X38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="Y38" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="C40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="D40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="E40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="F40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="H40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="I40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="U40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="V40" t="n">
-        <v>91.48995205464234</v>
+        <v>55.9732240378836</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="X40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.95027323718513</v>
+        <v>70.93010753724383</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5848775960155347</v>
+        <v>0.4963775435913156</v>
       </c>
       <c r="H8" t="n">
-        <v>5.989877680194096</v>
+        <v>5.083526518304562</v>
       </c>
       <c r="I8" t="n">
-        <v>22.54849352038892</v>
+        <v>19.13659524930421</v>
       </c>
       <c r="J8" t="n">
-        <v>49.64075486482353</v>
+        <v>42.12942354038346</v>
       </c>
       <c r="K8" t="n">
-        <v>74.39862350416114</v>
+        <v>63.14108496060386</v>
       </c>
       <c r="L8" t="n">
-        <v>92.29807123322158</v>
+        <v>78.3320992102866</v>
       </c>
       <c r="M8" t="n">
-        <v>102.6993881813628</v>
+        <v>87.15955335112865</v>
       </c>
       <c r="N8" t="n">
-        <v>104.361171651042</v>
+        <v>88.56988604685749</v>
       </c>
       <c r="O8" t="n">
-        <v>98.54529505566249</v>
+        <v>83.63403184777134</v>
       </c>
       <c r="P8" t="n">
-        <v>84.10612940402898</v>
+        <v>71.37971124036072</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.16020049672262</v>
+        <v>53.60319046049672</v>
       </c>
       <c r="R8" t="n">
-        <v>36.73981729071087</v>
+        <v>31.180575872618</v>
       </c>
       <c r="S8" t="n">
-        <v>13.32789821920401</v>
+        <v>11.31120327458711</v>
       </c>
       <c r="T8" t="n">
-        <v>2.560301676558004</v>
+        <v>2.172892697070985</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04679020768124276</v>
+        <v>0.03971020348730524</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3129371024341611</v>
+        <v>0.2655853998564291</v>
       </c>
       <c r="H9" t="n">
-        <v>3.022313594561504</v>
+        <v>2.564995835455513</v>
       </c>
       <c r="I9" t="n">
-        <v>10.77436953556213</v>
+        <v>9.144058723127056</v>
       </c>
       <c r="J9" t="n">
-        <v>29.56569352427309</v>
+        <v>25.09199604520763</v>
       </c>
       <c r="K9" t="n">
-        <v>50.53247938736188</v>
+        <v>42.88621783558838</v>
       </c>
       <c r="L9" t="n">
-        <v>67.94715463159275</v>
+        <v>57.66581236794967</v>
       </c>
       <c r="M9" t="n">
-        <v>79.29112459483108</v>
+        <v>67.2932831127452</v>
       </c>
       <c r="N9" t="n">
-        <v>81.3897247247514</v>
+        <v>69.07433607932627</v>
       </c>
       <c r="O9" t="n">
-        <v>74.45569734976289</v>
+        <v>63.18952274566539</v>
       </c>
       <c r="P9" t="n">
-        <v>59.75726125341451</v>
+        <v>50.71516289012812</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.94614661949046</v>
+        <v>33.90174332202418</v>
       </c>
       <c r="R9" t="n">
-        <v>19.42955097393854</v>
+        <v>16.4895917559983</v>
       </c>
       <c r="S9" t="n">
-        <v>5.812669424599436</v>
+        <v>4.933132317508669</v>
       </c>
       <c r="T9" t="n">
-        <v>1.261356127793833</v>
+        <v>1.070495537140606</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02058796726540534</v>
+        <v>0.01747272367476508</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2623559544422144</v>
+        <v>0.2226578776478259</v>
       </c>
       <c r="H10" t="n">
-        <v>2.332582940404417</v>
+        <v>1.979630948541581</v>
       </c>
       <c r="I10" t="n">
-        <v>7.889759066316778</v>
+        <v>6.695929629627349</v>
       </c>
       <c r="J10" t="n">
-        <v>18.54856597906456</v>
+        <v>15.74191194970129</v>
       </c>
       <c r="K10" t="n">
-        <v>30.48099179792272</v>
+        <v>25.86879705762922</v>
       </c>
       <c r="L10" t="n">
-        <v>39.00517526316341</v>
+        <v>33.10315391865951</v>
       </c>
       <c r="M10" t="n">
-        <v>41.12548838588275</v>
+        <v>34.90263440255875</v>
       </c>
       <c r="N10" t="n">
-        <v>40.14761619205271</v>
+        <v>34.07272776768961</v>
       </c>
       <c r="O10" t="n">
-        <v>37.08282163334137</v>
+        <v>31.47167892425817</v>
       </c>
       <c r="P10" t="n">
-        <v>31.73076016272017</v>
+        <v>26.9294582202425</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.96873360333852</v>
+        <v>18.64456100921932</v>
       </c>
       <c r="R10" t="n">
-        <v>11.79647773337447</v>
+        <v>10.01150784405588</v>
       </c>
       <c r="S10" t="n">
-        <v>4.572148769688408</v>
+        <v>3.880319558644383</v>
       </c>
       <c r="T10" t="n">
-        <v>1.120975441707643</v>
+        <v>0.9513563863134378</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01431032478775717</v>
+        <v>0.01214497514442688</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165888</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>315.305592123719</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>526.9674553503952</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36375,13 +36375,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36609,13 +36609,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>586.457590004947</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36764,7 +36764,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>504.9282531982362</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36852,10 +36852,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>329.1988939204464</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37001,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>358.3296824113136</v>
+        <v>377.2134278768862</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165892</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629123</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.369375156483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
